--- a/biology/Botanique/Baltik/Baltik.xlsx
+++ b/biology/Botanique/Baltik/Baltik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Baltik' est un cultivar de rosier floribunda obtenu en 1984 par l'école de botanique de Dresde (Allemagne de l'Est)[1]. Ses fleurs de couleur mauve pâle-lilas sont particulièrement remarquables. Il doit son nom à la mer Baltique en allemand.
+'Baltik' est un cultivar de rosier floribunda obtenu en 1984 par l'école de botanique de Dresde (Allemagne de l'Est). Ses fleurs de couleur mauve pâle-lilas sont particulièrement remarquables. Il doit son nom à la mer Baltique en allemand.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier floribunda, qui s'élève à 50-70 cm, est remarquable par ses fleurs en forme de coupe (17-25 pétales) aux nuances lilas pâle[2] de 3,5" de diamètre. Les feuilles au nombre de cinq sont vert tendre. Son parfum est léger. La floraison s'étale de juin à fin août[3]. Sa zone de rusticité est de 6b à 9b[1]. Il a besoin d'engrais et d'une taille à la fin de l'hiver[3]. On peut l'admirer à la roseraie de Dresde.
-Il est issu de 'Lavendula' x 'Silver Star' (Kordes, 1966, hybride de thé)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier floribunda, qui s'élève à 50-70 cm, est remarquable par ses fleurs en forme de coupe (17-25 pétales) aux nuances lilas pâle de 3,5" de diamètre. Les feuilles au nombre de cinq sont vert tendre. Son parfum est léger. La floraison s'étale de juin à fin août. Sa zone de rusticité est de 6b à 9b. Il a besoin d'engrais et d'une taille à la fin de l'hiver. On peut l'admirer à la roseraie de Dresde.
+Il est issu de 'Lavendula' x 'Silver Star' (Kordes, 1966, hybride de thé).
 </t>
         </is>
       </c>
